--- a/cPass-IU-Conversion-tool-20210804.xlsx
+++ b/cPass-IU-Conversion-tool-20210804.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5492f7272af2bd81/Documents/GitHub/cPass_IU_correlation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="420" documentId="11_70C9D03816872B1973C2937A6ECE423D9BEB5A68" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{338DFF56-9405-4D09-8C2C-5D28D03F6D2C}"/>
+  <xr:revisionPtr revIDLastSave="454" documentId="11_70C9D03816872B1973C2937A6ECE423D9BEB5A68" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0010089E-52F8-4A86-A354-7978A9AD2D9A}"/>
   <bookViews>
     <workbookView xWindow="3756" yWindow="1002" windowWidth="17124" windowHeight="9852" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2999,9 +2999,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9F0BE3-EEDB-428B-BC98-4420DD0C209F}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -3028,8 +3028,9 @@
       <c r="A2" s="1">
         <v>93.22</v>
       </c>
-      <c r="B2">
-        <v>999</v>
+      <c r="B2" s="18">
+        <f>IF(A2&lt;0,0,IF(A2&lt;97.6,10^((-LN((100/A2)-1)+4.105)/2.2424),"Please Dilute"))</f>
+        <v>998.75336166485545</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>41</v>
@@ -3039,8 +3040,9 @@
       <c r="A3">
         <v>90</v>
       </c>
-      <c r="B3">
-        <v>646</v>
+      <c r="B3" s="18">
+        <f t="shared" ref="B3:B12" si="0">IF(A3&lt;0,0,IF(A3&lt;97.6,10^((-LN((100/A3)-1)+4.105)/2.2424),"Please Dilute"))</f>
+        <v>646.37103138863301</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -3050,8 +3052,9 @@
       <c r="A4">
         <v>88</v>
       </c>
-      <c r="B4">
-        <v>524</v>
+      <c r="B4" s="18">
+        <f t="shared" si="0"/>
+        <v>523.78572582834477</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
@@ -3061,8 +3064,9 @@
       <c r="A5" s="1">
         <v>86.3</v>
       </c>
-      <c r="B5">
-        <v>448</v>
+      <c r="B5" s="18">
+        <f t="shared" si="0"/>
+        <v>448.09567069903181</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -3072,8 +3076,9 @@
       <c r="A6" s="1">
         <v>78.099999999999994</v>
       </c>
-      <c r="B6">
-        <v>250</v>
+      <c r="B6" s="18">
+        <f t="shared" si="0"/>
+        <v>249.83646373749573</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
@@ -3083,8 +3088,9 @@
       <c r="A7">
         <v>73</v>
       </c>
-      <c r="B7">
-        <v>188</v>
+      <c r="B7" s="18">
+        <f t="shared" si="0"/>
+        <v>188.00984828990434</v>
       </c>
       <c r="D7" s="19"/>
     </row>
@@ -3092,16 +3098,18 @@
       <c r="A8">
         <v>68</v>
       </c>
-      <c r="B8">
-        <v>147</v>
+      <c r="B8" s="18">
+        <f t="shared" si="0"/>
+        <v>146.81587308363069</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>59.2</v>
       </c>
-      <c r="B9">
-        <v>99</v>
+      <c r="B9" s="18">
+        <f t="shared" si="0"/>
+        <v>99.226659654218281</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
@@ -3111,16 +3119,18 @@
       <c r="A10">
         <v>58</v>
       </c>
-      <c r="B10">
-        <v>94</v>
+      <c r="B10" s="18">
+        <f t="shared" si="0"/>
+        <v>94.312431250403392</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>54.79</v>
       </c>
-      <c r="B11">
-        <v>82</v>
+      <c r="B11" s="18">
+        <f t="shared" si="0"/>
+        <v>82.47738947409799</v>
       </c>
       <c r="C11" t="s">
         <v>49</v>
@@ -3130,8 +3140,9 @@
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12">
-        <v>2</v>
+      <c r="B12" s="18">
+        <f t="shared" si="0"/>
+        <v>1.9074757334881944</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3144,7 +3155,7 @@
         <v>97.57</v>
       </c>
       <c r="B17" s="18">
-        <f>10^((-LN((100/A17)-1)+4.105)/2.2424)</f>
+        <f t="shared" ref="B17:B19" si="1">IF(A17&lt;0,0,IF(A17&lt;97.6,10^((-LN((100/A17)-1)+4.105)/2.2424),"Please Dilute"))</f>
         <v>3001.7937373805953</v>
       </c>
     </row>
@@ -3153,8 +3164,17 @@
         <v>93.22</v>
       </c>
       <c r="B18" s="18">
-        <f>10^((-LN((100/A18)-1)+4.105)/2.2424)</f>
+        <f t="shared" si="1"/>
         <v>998.75336166485545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>-20</v>
+      </c>
+      <c r="B19" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3167,8 +3187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF6DAE4-9EC4-4607-A20F-6445E484B8B2}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3976,13 +3996,13 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="18" t="e">
-        <f>10^((-LN((100/B13)-1)+4.105)/2.2424)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C22" s="18" t="e">
-        <f t="shared" ref="C22:M22" si="8">10^((-LN((100/C13)-1)+4.105)/2.2424)</f>
-        <v>#NUM!</v>
+      <c r="B22" s="18">
+        <f>IF(B13&lt;0,0,IF(B13&lt;97.6,10^((-LN((100/B13)-1)+4.105)/2.2424),"Please Dilute"))</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" ref="C22:M22" si="8">IF(C13&lt;0,0,IF(C13&lt;97.6,10^((-LN((100/C13)-1)+4.105)/2.2424),"Please Dilute"))</f>
+        <v>0</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" si="8"/>
@@ -3992,13 +4012,13 @@
         <f t="shared" si="8"/>
         <v>1037.4872724036338</v>
       </c>
-      <c r="F22" s="18" t="e">
+      <c r="F22" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G22" s="18">
+        <v>Please Dilute</v>
+      </c>
+      <c r="G22" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>24644.758988922302</v>
+        <v>Please Dilute</v>
       </c>
       <c r="H22" s="18">
         <f t="shared" si="8"/>
@@ -4026,13 +4046,13 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="18" t="e">
-        <f t="shared" ref="B23:M23" si="9">10^((-LN((100/B14)-1)+4.105)/2.2424)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C23" s="18" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
+      <c r="B23" s="18">
+        <f t="shared" ref="B23:M29" si="9">IF(B14&lt;0,0,IF(B14&lt;97.6,10^((-LN((100/B14)-1)+4.105)/2.2424),"Please Dilute"))</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" si="9"/>
@@ -4042,13 +4062,13 @@
         <f t="shared" si="9"/>
         <v>559.28248024148661</v>
       </c>
-      <c r="F23" s="18">
-        <f t="shared" si="9"/>
-        <v>102568.57449107463</v>
-      </c>
-      <c r="G23" s="18">
-        <f t="shared" si="9"/>
-        <v>102568.57449107463</v>
+      <c r="F23" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Please Dilute</v>
+      </c>
+      <c r="G23" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Please Dilute</v>
       </c>
       <c r="H23" s="18">
         <f t="shared" si="9"/>
@@ -4077,302 +4097,302 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="18">
-        <f t="shared" ref="B24:M24" si="10">10^((-LN((100/B15)-1)+4.105)/2.2424)</f>
+        <f t="shared" si="9"/>
         <v>1851.7061642347094</v>
       </c>
       <c r="C24" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2031.6737575710752</v>
       </c>
       <c r="D24" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>175.3866945363591</v>
       </c>
       <c r="E24" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>256.1736699746462</v>
       </c>
-      <c r="F24" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G24" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
+      <c r="F24" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Please Dilute</v>
+      </c>
+      <c r="G24" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Please Dilute</v>
       </c>
       <c r="H24" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>283.11974736781832</v>
       </c>
       <c r="I24" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>269.11772017486345</v>
       </c>
       <c r="J24" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>33.310912364522437</v>
       </c>
       <c r="K24" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>33.804748433142002</v>
       </c>
       <c r="L24" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>51.656166070534468</v>
       </c>
       <c r="M24" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>16.526260501987576</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="18">
-        <f t="shared" ref="B25:M25" si="11">10^((-LN((100/B16)-1)+4.105)/2.2424)</f>
+        <f t="shared" si="9"/>
         <v>17.375933114464534</v>
       </c>
       <c r="C25" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>12.994277562293634</v>
       </c>
       <c r="D25" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>108.02485708712082</v>
       </c>
       <c r="E25" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>133.63389268421437</v>
       </c>
-      <c r="F25" s="18" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G25" s="18">
-        <f t="shared" si="11"/>
-        <v>16225.267345604638</v>
+      <c r="F25" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Please Dilute</v>
+      </c>
+      <c r="G25" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Please Dilute</v>
       </c>
       <c r="H25" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>93.944921573569317</v>
       </c>
       <c r="I25" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>96.840452047142676</v>
       </c>
       <c r="J25" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>14.799765885339564</v>
       </c>
       <c r="K25" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>16.108187157058399</v>
       </c>
       <c r="L25" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>8.6677146446120545</v>
       </c>
       <c r="M25" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>8.1964271322619897</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="18">
-        <f t="shared" ref="B26:M26" si="12">10^((-LN((100/B17)-1)+4.105)/2.2424)</f>
-        <v>5518.2358824085695</v>
-      </c>
-      <c r="C26" s="18">
-        <f t="shared" si="12"/>
-        <v>6752.5257977092806</v>
+      <c r="B26" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Please Dilute</v>
+      </c>
+      <c r="C26" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Please Dilute</v>
       </c>
       <c r="D26" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>43.471381415992646</v>
       </c>
       <c r="E26" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>65.520779901066646</v>
       </c>
-      <c r="F26" s="18">
-        <f t="shared" si="12"/>
-        <v>12055.450208217175</v>
-      </c>
-      <c r="G26" s="18" t="e">
-        <f t="shared" si="12"/>
-        <v>#NUM!</v>
+      <c r="F26" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Please Dilute</v>
+      </c>
+      <c r="G26" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Please Dilute</v>
       </c>
       <c r="H26" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>44.072077170803333</v>
       </c>
       <c r="I26" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>38.482158121558093</v>
       </c>
       <c r="J26" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>9.630509186612306</v>
       </c>
       <c r="K26" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>7.7977241209927035</v>
       </c>
       <c r="L26" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>6.9502145661661823</v>
       </c>
       <c r="M26" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>4.0654250905962881</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="18">
-        <f t="shared" ref="B27:M27" si="13">10^((-LN((100/B18)-1)+4.105)/2.2424)</f>
+        <f t="shared" si="9"/>
         <v>214.79636447757002</v>
       </c>
       <c r="C27" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>231.94361151428441</v>
       </c>
       <c r="D27" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>17.981666428526388</v>
       </c>
       <c r="E27" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>25.094165875821798</v>
       </c>
-      <c r="F27" s="18" t="e">
-        <f t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G27" s="18">
-        <f t="shared" si="13"/>
-        <v>102568.57449107463</v>
+      <c r="F27" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Please Dilute</v>
+      </c>
+      <c r="G27" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Please Dilute</v>
       </c>
       <c r="H27" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>21.721679704343515</v>
       </c>
       <c r="I27" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>17.461907763736736</v>
       </c>
       <c r="J27" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4.4184812841411203</v>
       </c>
       <c r="K27" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>3.7745522294360163</v>
       </c>
       <c r="L27" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>3.4295046246140539</v>
       </c>
       <c r="M27" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1.0870355790200834</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="18" t="e">
-        <f t="shared" ref="B28:M28" si="14">10^((-LN((100/B19)-1)+4.105)/2.2424)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C28" s="18" t="e">
-        <f t="shared" si="14"/>
-        <v>#NUM!</v>
+      <c r="B28" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="D28" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>4.7759281994900977</v>
       </c>
       <c r="E28" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>11.936752280447552</v>
       </c>
-      <c r="F28" s="18">
-        <f t="shared" si="14"/>
-        <v>12055.450208217175</v>
-      </c>
-      <c r="G28" s="18">
-        <f t="shared" si="14"/>
-        <v>102568.57449107463</v>
+      <c r="F28" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Please Dilute</v>
+      </c>
+      <c r="G28" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Please Dilute</v>
       </c>
       <c r="H28" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>11.054217982531117</v>
       </c>
       <c r="I28" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>8.3975933143771826</v>
       </c>
       <c r="J28" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>1.6105678471799789</v>
       </c>
       <c r="K28" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0.72931867372661474</v>
       </c>
       <c r="L28" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0.57853025418633564</v>
       </c>
-      <c r="M28" s="18" t="e">
-        <f t="shared" si="14"/>
-        <v>#NUM!</v>
+      <c r="M28" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="18" t="e">
-        <f t="shared" ref="B29:M29" si="15">10^((-LN((100/B20)-1)+4.105)/2.2424)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C29" s="18" t="e">
-        <f t="shared" si="15"/>
-        <v>#NUM!</v>
+      <c r="B29" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="D29" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.38025275012338638</v>
       </c>
       <c r="E29" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>4.5966544668652549</v>
       </c>
-      <c r="F29" s="18">
-        <f t="shared" si="15"/>
-        <v>4025.5574758800849</v>
-      </c>
-      <c r="G29" s="18">
-        <f t="shared" si="15"/>
-        <v>3540.474996029966</v>
+      <c r="F29" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Please Dilute</v>
+      </c>
+      <c r="G29" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>Please Dilute</v>
       </c>
       <c r="H29" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.67887457715529209</v>
       </c>
       <c r="I29" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.62860953598333913</v>
       </c>
-      <c r="J29" s="18" t="e">
-        <f t="shared" si="15"/>
-        <v>#NUM!</v>
+      <c r="J29" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="K29" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>9.1139703734155239E-2</v>
       </c>
       <c r="L29" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.4294933306238648</v>
       </c>
-      <c r="M29" s="18" t="e">
-        <f t="shared" si="15"/>
-        <v>#NUM!</v>
+      <c r="M29" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
